--- a/10/3/Industria manufacturera 2003 a 2021 - Trimestral.xlsx
+++ b/10/3/Industria manufacturera 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Serie</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4238,6 +4241,56 @@
         <v>54.8</v>
       </c>
     </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73">
+        <v>59.4</v>
+      </c>
+      <c r="C73">
+        <v>41.9</v>
+      </c>
+      <c r="D73">
+        <v>60.2</v>
+      </c>
+      <c r="E73">
+        <v>72.3</v>
+      </c>
+      <c r="F73">
+        <v>57</v>
+      </c>
+      <c r="G73">
+        <v>67.8</v>
+      </c>
+      <c r="H73">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="I73">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="J73">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="K73">
+        <v>58.8</v>
+      </c>
+      <c r="L73">
+        <v>63.3</v>
+      </c>
+      <c r="M73">
+        <v>61.9</v>
+      </c>
+      <c r="N73">
+        <v>62</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <v>62.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
